--- a/data/trans_orig/P1417-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7EE9A2A-6AA0-4CD1-972E-3CD87D6190FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8156A07C-2195-4D94-876D-E306EE06B11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{380A3F4C-BDD5-48CD-AF39-9F4C1B3311EB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A41398B5-3DB4-4599-A316-C9F7C78079AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="376">
   <si>
     <t>Población con diagnóstico de anemia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,13 +95,13 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>4,76%</t>
+    <t>5,03%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>2,47%</t>
+    <t>2,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -119,13 +119,13 @@
     <t>98,54%</t>
   </si>
   <si>
-    <t>95,24%</t>
+    <t>94,97%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>97,53%</t>
+    <t>97,46%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -143,1021 +143,991 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>1,44%</t>
+    <t>1,72%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>98,56%</t>
+    <t>98,28%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
     <t>97,06%</t>
   </si>
   <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>2,09%</t>
   </si>
   <si>
     <t>1,2%</t>
@@ -1166,16 +1136,19 @@
     <t>4,29%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>2,52%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>98,8%</t>
@@ -1184,19 +1157,16 @@
     <t>94,89%</t>
   </si>
   <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>95,37%</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A1DEE1-4A99-4D65-8E80-9C25DA8900F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C4EB08-C6A6-4BF5-A0FD-0E8081D2F6D9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2213,10 +2183,10 @@
         <v>55</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -2228,10 +2198,10 @@
         <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2216,13 @@
         <v>958728</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>896</v>
@@ -2261,13 +2231,13 @@
         <v>955678</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>1789</v>
@@ -2279,10 +2249,10 @@
         <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,7 +2308,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2356,7 +2326,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2371,7 +2341,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2386,7 +2356,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2371,13 @@
         <v>2685</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -2416,13 +2386,13 @@
         <v>18796</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -2431,13 +2401,13 @@
         <v>21481</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,10 +2422,10 @@
         <v>675824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>22</v>
@@ -2467,13 +2437,13 @@
         <v>665045</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M18" s="7">
         <v>1317</v>
@@ -2482,13 +2452,13 @@
         <v>1340869</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,7 +2514,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2562,7 +2532,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2577,7 +2547,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2607,13 +2577,13 @@
         <v>5169</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -2622,13 +2592,13 @@
         <v>15298</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -2637,13 +2607,13 @@
         <v>20468</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2628,13 @@
         <v>937053</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>983</v>
@@ -2673,13 +2643,13 @@
         <v>1023314</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>1971</v>
@@ -2688,13 +2658,13 @@
         <v>1960366</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,7 +2738,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2783,7 +2753,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2798,7 +2768,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2783,13 @@
         <v>13481</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -2828,13 +2798,13 @@
         <v>57673</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -2843,13 +2813,13 @@
         <v>71154</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,13 +2834,13 @@
         <v>3263063</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7">
         <v>3242</v>
@@ -2879,28 +2849,28 @@
         <v>3321525</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M26" s="7">
         <v>6443</v>
       </c>
       <c r="N26" s="7">
-        <v>6584586</v>
+        <v>6584587</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,7 +2912,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>24</v>
@@ -2956,7 +2926,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2977,7 +2947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA5F5A8-7868-463F-AEDB-854CB928FBA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A211FCE3-DD19-4974-A367-459325ECBB01}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2994,7 +2964,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3107,7 +3077,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3122,7 +3092,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3137,7 +3107,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,7 +3128,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3167,13 +3137,13 @@
         <v>3113</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3182,13 +3152,13 @@
         <v>3113</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,7 +3176,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -3218,13 +3188,13 @@
         <v>108792</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M6" s="7">
         <v>218</v>
@@ -3233,13 +3203,13 @@
         <v>224557</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3283,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3328,7 +3298,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3364,7 +3334,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -3373,13 +3343,13 @@
         <v>14168</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -3388,13 +3358,13 @@
         <v>15145</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,10 +3379,10 @@
         <v>586727</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>22</v>
@@ -3424,13 +3394,13 @@
         <v>570977</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M10" s="7">
         <v>1089</v>
@@ -3439,13 +3409,13 @@
         <v>1157704</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,7 +3489,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3534,7 +3504,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3564,13 +3534,13 @@
         <v>7249</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -3579,13 +3549,13 @@
         <v>33411</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -3594,13 +3564,13 @@
         <v>40660</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3585,13 @@
         <v>1010698</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>908</v>
@@ -3630,13 +3600,13 @@
         <v>995562</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
         <v>1837</v>
@@ -3645,13 +3615,13 @@
         <v>2006260</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,7 +3677,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3725,7 +3695,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3740,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3755,7 +3725,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3740,13 @@
         <v>1053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -3785,13 +3755,13 @@
         <v>20686</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -3800,13 +3770,13 @@
         <v>21739</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,10 +3791,10 @@
         <v>756570</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>22</v>
@@ -3836,13 +3806,13 @@
         <v>756488</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="M18" s="7">
         <v>1374</v>
@@ -3851,13 +3821,13 @@
         <v>1513058</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>177</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,7 +3883,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3946,7 +3916,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3976,13 +3946,13 @@
         <v>6045</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -3991,10 +3961,10 @@
         <v>25182</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>182</v>
@@ -4006,7 +3976,7 @@
         <v>31227</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>183</v>
@@ -4030,10 +4000,10 @@
         <v>185</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H22" s="7">
         <v>977</v>
@@ -4042,13 +4012,13 @@
         <v>1025672</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M22" s="7">
         <v>1881</v>
@@ -4057,7 +4027,7 @@
         <v>1967367</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>190</v>
@@ -4137,7 +4107,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4152,7 +4122,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4167,7 +4137,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,10 +4155,10 @@
         <v>192</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="H25" s="7">
         <v>90</v>
@@ -4197,13 +4167,13 @@
         <v>96559</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M25" s="7">
         <v>105</v>
@@ -4215,10 +4185,10 @@
         <v>35</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4203,13 @@
         <v>3411455</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H26" s="7">
         <v>3205</v>
@@ -4248,28 +4218,28 @@
         <v>3457493</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="M26" s="7">
         <v>6399</v>
       </c>
       <c r="N26" s="7">
-        <v>6868946</v>
+        <v>6868947</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>203</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,7 +4281,7 @@
         <v>6504</v>
       </c>
       <c r="N27" s="7">
-        <v>6980830</v>
+        <v>6980831</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>24</v>
@@ -4325,7 +4295,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4346,7 +4316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4A3BA8-C544-448C-9B5B-AEFCA52BAF3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38482A58-3AAD-4A3C-9C7D-FACD1382D2A4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4363,7 +4333,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4476,7 +4446,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4491,7 +4461,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4506,7 +4476,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4491,13 @@
         <v>1587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4536,13 +4506,13 @@
         <v>4191</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4551,13 +4521,13 @@
         <v>5778</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,7 +4542,7 @@
         <v>114959</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>213</v>
@@ -4593,7 +4563,7 @@
         <v>215</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>223</v>
@@ -4602,13 +4572,13 @@
         <v>224128</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,7 +4652,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4697,7 +4667,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4712,7 +4682,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4697,13 @@
         <v>3660</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -4742,13 +4712,13 @@
         <v>15806</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -4757,13 +4727,13 @@
         <v>19466</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4748,13 @@
         <v>554594</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c r="H10" s="7">
         <v>536</v>
@@ -4793,13 +4763,13 @@
         <v>543673</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
         <v>1071</v>
@@ -4808,13 +4778,13 @@
         <v>1098267</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,7 +4858,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4903,7 +4873,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4933,13 +4903,13 @@
         <v>8190</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4948,13 +4918,13 @@
         <v>21405</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -4963,13 +4933,13 @@
         <v>29595</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +4954,13 @@
         <v>1014241</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>957</v>
@@ -4999,13 +4969,13 @@
         <v>1021508</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>247</v>
+        <v>119</v>
       </c>
       <c r="M14" s="7">
         <v>1900</v>
@@ -5014,13 +4984,13 @@
         <v>2035749</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,7 +5046,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5094,7 +5064,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5109,7 +5079,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>251</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5124,7 +5094,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5109,13 @@
         <v>4757</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -5154,13 +5124,13 @@
         <v>17077</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -5169,13 +5139,13 @@
         <v>21834</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,7 +5166,7 @@
         <v>260</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>261</v>
       </c>
       <c r="H18" s="7">
         <v>720</v>
@@ -5205,13 +5175,13 @@
         <v>767934</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>262</v>
+        <v>61</v>
       </c>
       <c r="M18" s="7">
         <v>1411</v>
@@ -5220,13 +5190,13 @@
         <v>1522729</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,7 +5252,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5315,7 +5285,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5351,7 +5321,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>267</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -5360,13 +5330,13 @@
         <v>28395</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M21" s="7">
         <v>27</v>
@@ -5375,13 +5345,13 @@
         <v>29297</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,10 +5366,10 @@
         <v>936666</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>66</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>22</v>
@@ -5411,13 +5381,13 @@
         <v>1015384</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>1864</v>
@@ -5426,13 +5396,13 @@
         <v>1952049</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,7 +5476,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5521,7 +5491,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5536,7 +5506,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,13 +5521,13 @@
         <v>19096</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>258</v>
+        <v>54</v>
       </c>
       <c r="H25" s="7">
         <v>81</v>
@@ -5566,13 +5536,13 @@
         <v>86874</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M25" s="7">
         <v>100</v>
@@ -5581,13 +5551,13 @@
         <v>105970</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5572,13 @@
         <v>3375254</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H26" s="7">
         <v>3257</v>
@@ -5617,13 +5587,13 @@
         <v>3457668</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>281</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>6469</v>
@@ -5632,13 +5602,13 @@
         <v>6832922</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,7 +5664,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5715,7 +5685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D351391D-0EC6-43D0-B7A2-83E94C9669AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28211A2-87B4-412A-9133-8EA247481182}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5732,7 +5702,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5845,7 +5815,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5860,7 +5830,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5875,7 +5845,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5860,13 @@
         <v>350</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5905,13 +5875,13 @@
         <v>4375</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -5920,13 +5890,13 @@
         <v>4725</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>292</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,10 +5911,10 @@
         <v>100402</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>295</v>
+        <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -5956,13 +5926,13 @@
         <v>126029</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M6" s="7">
         <v>348</v>
@@ -5971,13 +5941,13 @@
         <v>226431</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>301</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,7 +6021,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6060,13 +6030,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6075,10 +6045,10 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>307</v>
@@ -6102,7 +6072,7 @@
         <v>308</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>309</v>
+        <v>71</v>
       </c>
       <c r="H9" s="7">
         <v>44</v>
@@ -6111,13 +6081,13 @@
         <v>22523</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M9" s="7">
         <v>60</v>
@@ -6126,10 +6096,10 @@
         <v>31307</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>314</v>
@@ -6150,10 +6120,10 @@
         <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H10" s="7">
         <v>951</v>
@@ -6162,13 +6132,13 @@
         <v>570032</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M10" s="7">
         <v>1547</v>
@@ -6177,13 +6147,13 @@
         <v>1111071</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,7 +6227,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6266,13 +6236,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6281,13 +6251,13 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,10 +6275,10 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -6323,7 +6293,7 @@
         <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -6332,13 +6302,13 @@
         <v>59327</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,13 +6323,13 @@
         <v>1022832</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
         <v>1442</v>
@@ -6368,13 +6338,13 @@
         <v>1013601</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>2384</v>
@@ -6383,13 +6353,13 @@
         <v>2036433</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,7 +6415,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6463,7 +6433,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6478,7 +6448,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6508,13 +6478,13 @@
         <v>7651</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>337</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>338</v>
+        <v>33</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -6523,13 +6493,13 @@
         <v>42477</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -6538,13 +6508,13 @@
         <v>50128</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>343</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +6529,13 @@
         <v>717895</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>345</v>
+        <v>237</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>346</v>
+        <v>41</v>
       </c>
       <c r="H18" s="7">
         <v>989</v>
@@ -6574,13 +6544,13 @@
         <v>830538</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M18" s="7">
         <v>1653</v>
@@ -6589,13 +6559,13 @@
         <v>1548432</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>352</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,7 +6621,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6669,7 +6639,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6678,13 +6648,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6693,13 +6663,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>354</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,13 +6684,13 @@
         <v>8313</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>355</v>
+        <v>33</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="H21" s="7">
         <v>73</v>
@@ -6729,13 +6699,13 @@
         <v>51035</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="M21" s="7">
         <v>85</v>
@@ -6744,13 +6714,13 @@
         <v>59348</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +6735,13 @@
         <v>957090</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>362</v>
+        <v>59</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>364</v>
+        <v>41</v>
       </c>
       <c r="H22" s="7">
         <v>1485</v>
@@ -6780,13 +6750,13 @@
         <v>1094609</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="M22" s="7">
         <v>2479</v>
@@ -6795,13 +6765,13 @@
         <v>2051699</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,7 +6845,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -6887,10 +6857,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -6902,10 +6872,10 @@
         <v>33</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6920,13 +6890,13 @@
         <v>40585</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>54</v>
+        <v>257</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>356</v>
+        <v>224</v>
       </c>
       <c r="H25" s="7">
         <v>254</v>
@@ -6935,13 +6905,13 @@
         <v>164251</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M25" s="7">
         <v>313</v>
@@ -6950,13 +6920,13 @@
         <v>204836</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,13 +6941,13 @@
         <v>3339257</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>363</v>
+        <v>231</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>60</v>
+        <v>266</v>
       </c>
       <c r="H26" s="7">
         <v>5099</v>
@@ -6986,13 +6956,13 @@
         <v>3634809</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="M26" s="7">
         <v>8411</v>
@@ -7001,13 +6971,13 @@
         <v>6974065</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>385</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,7 +7033,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1417-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8156A07C-2195-4D94-876D-E306EE06B11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{795CAFAC-03B9-4992-B470-9866C463B406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A41398B5-3DB4-4599-A316-C9F7C78079AB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{440182FE-73AD-4831-A6E2-21F6D32E51F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="372">
   <si>
     <t>Población con diagnóstico de anemia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida</t>
@@ -95,13 +95,13 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>5,03%</t>
+    <t>4,66%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>2,54%</t>
+    <t>2,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -119,16 +119,16 @@
     <t>98,54%</t>
   </si>
   <si>
-    <t>94,97%</t>
+    <t>95,34%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -143,1015 +143,1003 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>1,72%</t>
+    <t>1,66%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
   </si>
   <si>
     <t>94,89%</t>
@@ -1578,7 +1566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C4EB08-C6A6-4BF5-A0FD-0E8081D2F6D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DA3D07-856E-4E02-8364-F2BE97C4A921}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2198,10 +2186,10 @@
         <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2204,13 @@
         <v>958728</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>896</v>
@@ -2231,13 +2219,13 @@
         <v>955678</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>1789</v>
@@ -2246,13 +2234,13 @@
         <v>1914406</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,7 +2296,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2326,7 +2314,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2341,7 +2329,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2356,7 +2344,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2359,13 @@
         <v>2685</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -2386,13 +2374,13 @@
         <v>18796</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -2401,13 +2389,13 @@
         <v>21481</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,10 +2410,10 @@
         <v>675824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>22</v>
@@ -2437,13 +2425,13 @@
         <v>665045</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7">
         <v>1317</v>
@@ -2452,13 +2440,13 @@
         <v>1340869</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,7 +2502,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2532,7 +2520,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2547,7 +2535,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2577,13 +2565,13 @@
         <v>5169</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -2592,13 +2580,13 @@
         <v>15298</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -2607,13 +2595,13 @@
         <v>20468</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,13 +2616,13 @@
         <v>937053</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>983</v>
@@ -2643,13 +2631,13 @@
         <v>1023314</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>1971</v>
@@ -2658,13 +2646,13 @@
         <v>1960366</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2753,7 +2741,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2768,7 +2756,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2771,13 @@
         <v>13481</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -2798,13 +2786,13 @@
         <v>57673</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -2813,13 +2801,13 @@
         <v>71154</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,16 +2819,16 @@
         <v>3201</v>
       </c>
       <c r="D26" s="7">
-        <v>3263063</v>
+        <v>3263062</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H26" s="7">
         <v>3242</v>
@@ -2849,13 +2837,13 @@
         <v>3321525</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="M26" s="7">
         <v>6443</v>
@@ -2864,13 +2852,13 @@
         <v>6584587</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,7 +2870,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>24</v>
@@ -2926,7 +2914,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2947,7 +2935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A211FCE3-DD19-4974-A367-459325ECBB01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB76C4FB-3FBB-4A71-B360-828A646960D4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2964,7 +2952,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3077,7 +3065,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3092,7 +3080,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3107,7 +3095,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3137,13 +3125,13 @@
         <v>3113</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3152,13 +3140,13 @@
         <v>3113</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,7 +3164,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -3188,13 +3176,13 @@
         <v>108792</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M6" s="7">
         <v>218</v>
@@ -3203,7 +3191,7 @@
         <v>224557</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>138</v>
@@ -3361,10 +3349,10 @@
         <v>145</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,10 +3400,10 @@
         <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,7 +3525,7 @@
         <v>155</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>156</v>
@@ -3677,7 +3665,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3695,7 +3683,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3725,7 +3713,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3728,13 @@
         <v>1053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -3758,10 +3746,10 @@
         <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -3770,13 +3758,13 @@
         <v>21739</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,10 +3779,10 @@
         <v>756570</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>22</v>
@@ -3806,13 +3794,13 @@
         <v>756488</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>1374</v>
@@ -3821,13 +3809,13 @@
         <v>1513058</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,7 +3871,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3916,7 +3904,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3946,10 +3934,10 @@
         <v>6045</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>55</v>
@@ -3961,13 +3949,13 @@
         <v>25182</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -3976,13 +3964,13 @@
         <v>31227</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +3985,13 @@
         <v>941694</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H22" s="7">
         <v>977</v>
@@ -4012,13 +4000,13 @@
         <v>1025672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M22" s="7">
         <v>1881</v>
@@ -4027,13 +4015,13 @@
         <v>1967367</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,7 +4095,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4122,7 +4110,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4137,7 +4125,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4140,13 @@
         <v>15324</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="H25" s="7">
         <v>90</v>
@@ -4167,13 +4155,13 @@
         <v>96559</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M25" s="7">
         <v>105</v>
@@ -4188,7 +4176,7 @@
         <v>55</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4191,13 @@
         <v>3411455</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H26" s="7">
         <v>3205</v>
@@ -4218,28 +4206,28 @@
         <v>3457493</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="M26" s="7">
         <v>6399</v>
       </c>
       <c r="N26" s="7">
-        <v>6868947</v>
+        <v>6868946</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,7 +4269,7 @@
         <v>6504</v>
       </c>
       <c r="N27" s="7">
-        <v>6980831</v>
+        <v>6980830</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>24</v>
@@ -4295,7 +4283,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4316,7 +4304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38482A58-3AAD-4A3C-9C7D-FACD1382D2A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925671FE-C4D5-46EB-BEB8-5E5BC6E8914C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4333,7 +4321,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4446,7 +4434,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4461,7 +4449,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4476,7 +4464,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4479,13 @@
         <v>1587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4506,13 +4494,13 @@
         <v>4191</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4521,13 +4509,13 @@
         <v>5778</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,10 +4530,10 @@
         <v>114959</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -4557,13 +4545,13 @@
         <v>109169</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>223</v>
@@ -4572,13 +4560,13 @@
         <v>224128</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,7 +4640,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4682,7 +4670,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4685,13 @@
         <v>3660</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -4712,13 +4700,13 @@
         <v>15806</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -4727,13 +4715,13 @@
         <v>19466</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4736,13 @@
         <v>554594</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7">
         <v>536</v>
@@ -4763,13 +4751,13 @@
         <v>543673</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>1071</v>
@@ -4778,13 +4766,13 @@
         <v>1098267</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4891,13 @@
         <v>8190</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4918,13 +4906,13 @@
         <v>21405</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>109</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -4933,13 +4921,13 @@
         <v>29595</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4942,13 @@
         <v>1014241</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>133</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
         <v>957</v>
@@ -4969,13 +4957,13 @@
         <v>1021508</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>119</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
         <v>1900</v>
@@ -4984,13 +4972,13 @@
         <v>2035749</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,7 +5034,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5064,7 +5052,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5079,7 +5067,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5094,7 +5082,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5097,13 @@
         <v>4757</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>251</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -5124,13 +5112,13 @@
         <v>17077</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>55</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -5139,13 +5127,13 @@
         <v>21834</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5148,13 @@
         <v>754795</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>259</v>
+        <v>105</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H18" s="7">
         <v>720</v>
@@ -5175,13 +5163,13 @@
         <v>767934</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>262</v>
+        <v>182</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="M18" s="7">
         <v>1411</v>
@@ -5190,13 +5178,13 @@
         <v>1522729</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>265</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,7 +5240,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5321,7 +5309,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>267</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -5330,7 +5318,7 @@
         <v>28395</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>268</v>
@@ -5348,10 +5336,10 @@
         <v>270</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>271</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,10 +5354,10 @@
         <v>936666</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>68</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>22</v>
@@ -5381,13 +5369,13 @@
         <v>1015384</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>1864</v>
@@ -5396,13 +5384,13 @@
         <v>1952049</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,7 +5464,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5491,7 +5479,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5506,7 +5494,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5509,13 @@
         <v>19096</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>81</v>
@@ -5536,13 +5524,13 @@
         <v>86874</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M25" s="7">
         <v>100</v>
@@ -5551,13 +5539,13 @@
         <v>105970</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5560,13 @@
         <v>3375254</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H26" s="7">
         <v>3257</v>
@@ -5587,13 +5575,13 @@
         <v>3457668</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>6469</v>
@@ -5605,10 +5593,10 @@
         <v>285</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,7 +5652,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -5685,7 +5673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28211A2-87B4-412A-9133-8EA247481182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D33EA7-BC14-4E7A-B498-81036B94E041}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5702,7 +5690,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5815,7 +5803,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5830,7 +5818,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5845,7 +5833,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,7 +5854,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5875,13 +5863,13 @@
         <v>4375</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -5890,13 +5878,13 @@
         <v>4725</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,10 +5899,10 @@
         <v>100402</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -5926,13 +5914,13 @@
         <v>126029</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>297</v>
+        <v>206</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="M6" s="7">
         <v>348</v>
@@ -5941,13 +5929,13 @@
         <v>226431</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,7 +6009,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6030,13 +6018,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6045,13 +6033,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,10 +6057,10 @@
         <v>35</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H9" s="7">
         <v>44</v>
@@ -6081,13 +6069,13 @@
         <v>22523</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M9" s="7">
         <v>60</v>
@@ -6096,13 +6084,13 @@
         <v>31307</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,10 +6108,10 @@
         <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>951</v>
@@ -6132,13 +6120,13 @@
         <v>570032</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
         <v>1547</v>
@@ -6147,13 +6135,13 @@
         <v>1111071</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,13 +6224,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6251,13 +6239,13 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,10 +6263,10 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -6287,13 +6275,13 @@
         <v>43840</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>325</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -6302,13 +6290,13 @@
         <v>59327</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,13 +6311,13 @@
         <v>1022832</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="H14" s="7">
         <v>1442</v>
@@ -6338,13 +6326,13 @@
         <v>1013601</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>330</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M14" s="7">
         <v>2384</v>
@@ -6353,13 +6341,13 @@
         <v>2036433</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,7 +6403,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6433,7 +6421,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6448,7 +6436,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6478,7 +6466,7 @@
         <v>7651</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>33</v>
@@ -6493,13 +6481,13 @@
         <v>42477</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -6508,13 +6496,13 @@
         <v>50128</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,7 +6517,7 @@
         <v>717895</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>237</v>
+        <v>336</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>169</v>
@@ -6544,13 +6532,13 @@
         <v>830538</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M18" s="7">
         <v>1653</v>
@@ -6559,13 +6547,13 @@
         <v>1548432</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,7 +6609,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6639,7 +6627,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6648,13 +6636,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>345</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6663,13 +6651,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,13 +6672,13 @@
         <v>8313</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>346</v>
+        <v>243</v>
       </c>
       <c r="H21" s="7">
         <v>73</v>
@@ -6699,13 +6687,13 @@
         <v>51035</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M21" s="7">
         <v>85</v>
@@ -6714,13 +6702,13 @@
         <v>59348</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,10 +6723,10 @@
         <v>957090</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>59</v>
+        <v>348</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>352</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>41</v>
@@ -6750,13 +6738,13 @@
         <v>1094609</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>2479</v>
@@ -6765,13 +6753,13 @@
         <v>2051699</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,7 +6833,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -6857,10 +6845,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -6872,10 +6860,10 @@
         <v>33</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,13 +6878,13 @@
         <v>40585</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>224</v>
+        <v>359</v>
       </c>
       <c r="H25" s="7">
         <v>254</v>
@@ -6905,13 +6893,13 @@
         <v>164251</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M25" s="7">
         <v>313</v>
@@ -6920,13 +6908,13 @@
         <v>204836</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>368</v>
+        <v>20</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,13 +6929,13 @@
         <v>3339257</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>231</v>
+        <v>366</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>266</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>5099</v>
@@ -6956,13 +6944,13 @@
         <v>3634809</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M26" s="7">
         <v>8411</v>
@@ -6971,13 +6959,13 @@
         <v>6974065</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,7 +7021,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1417-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C06E5CF-EC57-42F6-933F-1053CF9A267A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A8E7AEC-8AF0-41F6-98C2-DC5A7E8B70C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{922664AB-507E-4303-A347-820000268339}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A3507462-4274-4FB4-81A9-7892FDD9053F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="302">
   <si>
     <t>Población con diagnóstico de anemia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,940 +68,814 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,37%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,19%</t>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
   </si>
   <si>
     <t>98,63%</t>
   </si>
   <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
   </si>
   <si>
     <t>97,84%</t>
   </si>
   <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>0,46%</t>
@@ -1010,22 +884,16 @@
     <t>1,54%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>98,46%</t>
@@ -1034,55 +902,49 @@
     <t>99,54%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
 </sst>
 </file>
@@ -1494,8 +1356,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2925E991-30A2-4734-B545-C54350F1B7FE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFA840F-8710-470E-A23E-38B0D172535E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1612,10 +1474,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2555</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1627,85 +1489,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>1646</v>
+        <v>10863</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>1646</v>
+        <v>13418</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>105</v>
+        <v>681</v>
       </c>
       <c r="D5" s="7">
-        <v>115358</v>
+        <v>691457</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>126</v>
+        <v>685</v>
       </c>
       <c r="I5" s="7">
-        <v>111109</v>
+        <v>677488</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>231</v>
+        <v>1366</v>
       </c>
       <c r="N5" s="7">
-        <v>226467</v>
+        <v>1368945</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1714,153 +1576,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>2555</v>
+        <v>3072</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>9218</v>
+        <v>12715</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>11772</v>
+        <v>15787</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>576</v>
+        <v>893</v>
       </c>
       <c r="D8" s="7">
-        <v>576099</v>
+        <v>958728</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>559</v>
+        <v>896</v>
       </c>
       <c r="I8" s="7">
-        <v>566378</v>
+        <v>955678</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1135</v>
+        <v>1789</v>
       </c>
       <c r="N8" s="7">
-        <v>1142478</v>
+        <v>1914406</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1869,153 +1731,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3072</v>
+        <v>2685</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>12715</v>
+        <v>18796</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>15787</v>
+        <v>21481</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>893</v>
+        <v>639</v>
       </c>
       <c r="D11" s="7">
-        <v>958728</v>
+        <v>675824</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>896</v>
+        <v>678</v>
       </c>
       <c r="I11" s="7">
-        <v>955678</v>
+        <v>665045</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
-        <v>1789</v>
+        <v>1317</v>
       </c>
       <c r="N11" s="7">
-        <v>1914406</v>
+        <v>1340869</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,153 +1886,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>2685</v>
+        <v>5169</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>18796</v>
+        <v>15298</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
       </c>
       <c r="N13" s="7">
-        <v>21481</v>
+        <v>20468</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>639</v>
+        <v>988</v>
       </c>
       <c r="D14" s="7">
-        <v>675824</v>
+        <v>937053</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>678</v>
+        <v>983</v>
       </c>
       <c r="I14" s="7">
-        <v>665045</v>
+        <v>1023314</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>1317</v>
+        <v>1971</v>
       </c>
       <c r="N14" s="7">
-        <v>1340869</v>
+        <v>1960366</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,153 +2041,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>5169</v>
+        <v>13481</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I16" s="7">
-        <v>15298</v>
+        <v>57673</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="N16" s="7">
-        <v>20468</v>
+        <v>71154</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>988</v>
+        <v>3201</v>
       </c>
       <c r="D17" s="7">
-        <v>937053</v>
+        <v>3263062</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
-        <v>983</v>
+        <v>3242</v>
       </c>
       <c r="I17" s="7">
-        <v>1023314</v>
+        <v>3321524</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
-        <v>1971</v>
+        <v>6443</v>
       </c>
       <c r="N17" s="7">
-        <v>1960366</v>
+        <v>6584587</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,217 +2196,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>13</v>
-      </c>
-      <c r="D19" s="7">
-        <v>13481</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="A19" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="7">
-        <v>55</v>
-      </c>
-      <c r="I19" s="7">
-        <v>57673</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M19" s="7">
-        <v>68</v>
-      </c>
-      <c r="N19" s="7">
-        <v>71154</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3201</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3263063</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3242</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3321525</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6443</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6584586</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2557,8 +2263,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F659D015-360A-441C-A259-B8603ACA88B5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6910D101-B566-46F0-935F-D2901518E2E9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2574,7 +2280,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2675,100 +2381,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>3113</v>
+        <v>17281</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>3113</v>
+        <v>18258</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>122</v>
+        <v>673</v>
       </c>
       <c r="D5" s="7">
-        <v>115765</v>
+        <v>702492</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>96</v>
+        <v>634</v>
       </c>
       <c r="I5" s="7">
-        <v>108792</v>
+        <v>679769</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="M5" s="7">
-        <v>218</v>
+        <v>1307</v>
       </c>
       <c r="N5" s="7">
-        <v>224557</v>
+        <v>1382261</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,153 +2483,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>977</v>
+        <v>7249</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>14168</v>
+        <v>33411</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N7" s="7">
-        <v>15145</v>
+        <v>40660</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>551</v>
+        <v>929</v>
       </c>
       <c r="D8" s="7">
-        <v>586727</v>
+        <v>1010698</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="7">
+        <v>908</v>
+      </c>
+      <c r="I8" s="7">
+        <v>995562</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1837</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2006261</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>538</v>
-      </c>
-      <c r="I8" s="7">
-        <v>570977</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1089</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1157704</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,153 +2638,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>7249</v>
+        <v>1053</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="7">
+        <v>19</v>
+      </c>
+      <c r="I10" s="7">
+        <v>20686</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="7">
+        <v>20</v>
+      </c>
+      <c r="N10" s="7">
+        <v>21739</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="7">
-        <v>30</v>
-      </c>
-      <c r="I10" s="7">
-        <v>33411</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M10" s="7">
-        <v>37</v>
-      </c>
-      <c r="N10" s="7">
-        <v>40660</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>929</v>
+        <v>688</v>
       </c>
       <c r="D11" s="7">
-        <v>1010698</v>
+        <v>756570</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>908</v>
+        <v>686</v>
       </c>
       <c r="I11" s="7">
-        <v>995562</v>
+        <v>756488</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>1837</v>
+        <v>1374</v>
       </c>
       <c r="N11" s="7">
-        <v>2006260</v>
+        <v>1513058</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,153 +2793,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>1053</v>
+        <v>6045</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>20686</v>
+        <v>25182</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N13" s="7">
-        <v>21739</v>
+        <v>31227</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>688</v>
+        <v>904</v>
       </c>
       <c r="D14" s="7">
-        <v>756570</v>
+        <v>941694</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="7">
+        <v>977</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1025673</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1881</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1967367</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>686</v>
-      </c>
-      <c r="I14" s="7">
-        <v>756488</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1374</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1513058</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,153 +2948,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1002</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1050855</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1912</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1998594</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>6045</v>
+        <v>15324</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="7">
+        <v>90</v>
+      </c>
+      <c r="I16" s="7">
+        <v>96559</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" s="7">
+        <v>105</v>
+      </c>
+      <c r="N16" s="7">
+        <v>111884</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H16" s="7">
-        <v>25</v>
-      </c>
-      <c r="I16" s="7">
-        <v>25182</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M16" s="7">
-        <v>31</v>
-      </c>
-      <c r="N16" s="7">
-        <v>31227</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>904</v>
+        <v>3194</v>
       </c>
       <c r="D17" s="7">
-        <v>941694</v>
+        <v>3411455</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3205</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3457493</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="7">
+        <v>6399</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6868947</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H17" s="7">
-        <v>977</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1025672</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1881</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1967367</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,217 +3103,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1002</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1050854</v>
+        <v>3554052</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1912</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1998594</v>
+        <v>6980831</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7">
-        <v>15324</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="7">
-        <v>90</v>
-      </c>
-      <c r="I19" s="7">
-        <v>96559</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M19" s="7">
-        <v>105</v>
-      </c>
-      <c r="N19" s="7">
-        <v>111884</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3194</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3411455</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3205</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3457493</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6399</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6868946</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3554052</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6980830</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3620,8 +3170,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA0F942-6BA8-4E5D-AC15-D51E7ADEAE5C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DE26B5-B577-4587-9F1B-D4976DDA0F7A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3637,7 +3187,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3738,100 +3288,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>1587</v>
+        <v>5247</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>4191</v>
+        <v>19997</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>5778</v>
+        <v>25244</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>112</v>
+        <v>647</v>
       </c>
       <c r="D5" s="7">
-        <v>114959</v>
+        <v>669553</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
-        <v>111</v>
+        <v>647</v>
       </c>
       <c r="I5" s="7">
-        <v>109169</v>
+        <v>652842</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
-        <v>223</v>
+        <v>1294</v>
       </c>
       <c r="N5" s="7">
-        <v>224128</v>
+        <v>1322395</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,153 +3390,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>3660</v>
+        <v>8190</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>15806</v>
+        <v>21405</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="M7" s="7">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N7" s="7">
-        <v>19466</v>
+        <v>29595</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>535</v>
+        <v>943</v>
       </c>
       <c r="D8" s="7">
-        <v>554594</v>
+        <v>1014241</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
-        <v>536</v>
+        <v>957</v>
       </c>
       <c r="I8" s="7">
-        <v>543673</v>
+        <v>1021508</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7">
-        <v>1071</v>
+        <v>1900</v>
       </c>
       <c r="N8" s="7">
-        <v>1098267</v>
+        <v>2035749</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,153 +3545,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>8190</v>
+        <v>4757</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>21405</v>
+        <v>17077</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>29595</v>
+        <v>21834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>943</v>
+        <v>691</v>
       </c>
       <c r="D11" s="7">
-        <v>1014241</v>
+        <v>754795</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="H11" s="7">
-        <v>957</v>
+        <v>720</v>
       </c>
       <c r="I11" s="7">
-        <v>1021508</v>
+        <v>767934</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
-        <v>1900</v>
+        <v>1411</v>
       </c>
       <c r="N11" s="7">
-        <v>2035749</v>
+        <v>1522729</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,153 +3700,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>4757</v>
+        <v>901</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>17077</v>
+        <v>28395</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>21834</v>
+        <v>29297</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>691</v>
+        <v>931</v>
       </c>
       <c r="D14" s="7">
-        <v>754795</v>
+        <v>936666</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>240</v>
+        <v>49</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>720</v>
+        <v>933</v>
       </c>
       <c r="I14" s="7">
-        <v>767934</v>
+        <v>1015384</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
-        <v>1411</v>
+        <v>1864</v>
       </c>
       <c r="N14" s="7">
-        <v>1522729</v>
+        <v>1952049</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,153 +3855,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>901</v>
+        <v>19096</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="I16" s="7">
-        <v>28395</v>
+        <v>86874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="N16" s="7">
-        <v>29297</v>
+        <v>105970</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>931</v>
+        <v>3212</v>
       </c>
       <c r="D17" s="7">
-        <v>936666</v>
+        <v>3375254</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>54</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
-        <v>933</v>
+        <v>3257</v>
       </c>
       <c r="I17" s="7">
-        <v>1015384</v>
+        <v>3457668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
-        <v>1864</v>
+        <v>6469</v>
       </c>
       <c r="N17" s="7">
-        <v>1952049</v>
+        <v>6832922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,217 +4010,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>19</v>
-      </c>
-      <c r="D19" s="7">
-        <v>19096</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H19" s="7">
-        <v>81</v>
-      </c>
-      <c r="I19" s="7">
-        <v>86874</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M19" s="7">
-        <v>100</v>
-      </c>
-      <c r="N19" s="7">
-        <v>105970</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3212</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3375254</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3257</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3457668</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6469</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6832922</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4683,8 +4077,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC22B4A-ADC7-47B5-BCB1-2B9C470207BA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0C98E5-2D61-47EA-8339-B03D0C71E965}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4700,7 +4094,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4801,100 +4195,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>350</v>
+        <v>8697</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="I4" s="7">
-        <v>4375</v>
+        <v>25156</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="N4" s="7">
-        <v>4725</v>
+        <v>33853</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>116</v>
+        <v>712</v>
       </c>
       <c r="D5" s="7">
-        <v>100402</v>
+        <v>625650</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7">
-        <v>232</v>
+        <v>1183</v>
       </c>
       <c r="I5" s="7">
-        <v>126029</v>
+        <v>649913</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
-        <v>348</v>
+        <v>1895</v>
       </c>
       <c r="N5" s="7">
-        <v>226431</v>
+        <v>1275563</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,153 +4297,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>100752</v>
+        <v>634347</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130404</v>
+        <v>675069</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>359</v>
+        <v>1966</v>
       </c>
       <c r="N6" s="7">
-        <v>231156</v>
+        <v>1309416</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>8784</v>
+        <v>14765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="I7" s="7">
-        <v>22523</v>
+        <v>40542</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="N7" s="7">
-        <v>31307</v>
+        <v>55308</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>287</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>116</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>596</v>
+        <v>942</v>
       </c>
       <c r="D8" s="7">
-        <v>541039</v>
+        <v>1177214</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
-        <v>951</v>
+        <v>1442</v>
       </c>
       <c r="I8" s="7">
-        <v>570032</v>
+        <v>915670</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
-        <v>1547</v>
+        <v>2384</v>
       </c>
       <c r="N8" s="7">
-        <v>1111071</v>
+        <v>2092883</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>293</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,153 +4452,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1191979</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1513</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>956212</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2476</v>
       </c>
       <c r="N9" s="7">
-        <v>1142378</v>
+        <v>2148191</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>15487</v>
+        <v>7430</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="I10" s="7">
-        <v>43840</v>
+        <v>41570</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="N10" s="7">
-        <v>59327</v>
+        <v>49000</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>48</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>942</v>
+        <v>664</v>
       </c>
       <c r="D11" s="7">
-        <v>1022832</v>
+        <v>694222</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
-        <v>1442</v>
+        <v>989</v>
       </c>
       <c r="I11" s="7">
-        <v>1013602</v>
+        <v>890572</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
-        <v>2384</v>
+        <v>1653</v>
       </c>
       <c r="N11" s="7">
-        <v>2036433</v>
+        <v>1584794</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,153 +4607,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>673</v>
       </c>
       <c r="D12" s="7">
-        <v>1038319</v>
+        <v>701652</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1513</v>
+        <v>1045</v>
       </c>
       <c r="I12" s="7">
-        <v>1057442</v>
+        <v>932142</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2476</v>
+        <v>1718</v>
       </c>
       <c r="N12" s="7">
-        <v>2095760</v>
+        <v>1633794</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>7651</v>
+        <v>7871</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I13" s="7">
-        <v>42477</v>
+        <v>45806</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N13" s="7">
-        <v>50128</v>
+        <v>53677</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>310</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>664</v>
+        <v>994</v>
       </c>
       <c r="D14" s="7">
-        <v>717895</v>
+        <v>918960</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
-        <v>989</v>
+        <v>1485</v>
       </c>
       <c r="I14" s="7">
-        <v>830538</v>
+        <v>1044966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
-        <v>1653</v>
+        <v>2479</v>
       </c>
       <c r="N14" s="7">
-        <v>1548432</v>
+        <v>1963926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>319</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,153 +4762,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>673</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>725546</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1045</v>
+        <v>1558</v>
       </c>
       <c r="I15" s="7">
-        <v>873015</v>
+        <v>1090772</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1718</v>
+        <v>2564</v>
       </c>
       <c r="N15" s="7">
-        <v>1598560</v>
+        <v>2017603</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7">
-        <v>8313</v>
+        <v>38763</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>321</v>
+        <v>38</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>322</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
-        <v>73</v>
+        <v>254</v>
       </c>
       <c r="I16" s="7">
-        <v>51035</v>
+        <v>153074</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>323</v>
+        <v>134</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
-        <v>85</v>
+        <v>313</v>
       </c>
       <c r="N16" s="7">
-        <v>59348</v>
+        <v>191837</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>140</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>994</v>
+        <v>3312</v>
       </c>
       <c r="D17" s="7">
-        <v>957090</v>
+        <v>3416046</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>329</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>47</v>
       </c>
       <c r="H17" s="7">
-        <v>1485</v>
+        <v>5099</v>
       </c>
       <c r="I17" s="7">
-        <v>1094609</v>
+        <v>3501120</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>331</v>
+        <v>138</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
-        <v>2479</v>
+        <v>8411</v>
       </c>
       <c r="N17" s="7">
-        <v>2051699</v>
+        <v>6917166</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,217 +4917,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3371</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3454809</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1558</v>
+        <v>5353</v>
       </c>
       <c r="I18" s="7">
-        <v>1145644</v>
+        <v>3654194</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2564</v>
+        <v>8724</v>
       </c>
       <c r="N18" s="7">
-        <v>2111047</v>
+        <v>7109003</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>59</v>
-      </c>
-      <c r="D19" s="7">
-        <v>40585</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H19" s="7">
-        <v>254</v>
-      </c>
-      <c r="I19" s="7">
-        <v>164251</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="M19" s="7">
-        <v>313</v>
-      </c>
-      <c r="N19" s="7">
-        <v>204836</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3312</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3339257</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5099</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3634808</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8411</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6974066</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3371</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3379842</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5353</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3799059</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8724</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7178902</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
